--- a/关键词字典.xlsx
+++ b/关键词字典.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\医院统计程序\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\Statistic_for_mom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FEDFF-3CBD-4BDB-BC1B-EB0399E24382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B4307-CAFD-4B70-9B62-FE7405B67911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>要统计的关键词</t>
   </si>
@@ -100,195 +100,221 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>颈椎左右斜位片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下颌张口闭口位片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧斜位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双侧跟骨侧位片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左斜</t>
+  </si>
+  <si>
+    <t>右斜</t>
+  </si>
+  <si>
+    <t>造影</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正、侧、斜位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全腹部平扫＋增强</t>
+  </si>
+  <si>
+    <t>平扫</t>
+  </si>
+  <si>
+    <t>泌尿系直接增强</t>
+  </si>
+  <si>
+    <t>直接增强</t>
+  </si>
+  <si>
+    <t>头+颈部CTA血管成像</t>
+  </si>
+  <si>
+    <t>腹主动脉CTA血管成像</t>
+  </si>
+  <si>
+    <t>肺动脉CTA血管成像</t>
+  </si>
+  <si>
+    <t>尿路成象（CTU）</t>
+  </si>
+  <si>
+    <t>下肢CTA血管成像</t>
+  </si>
+  <si>
+    <t>骨三维成象</t>
+  </si>
+  <si>
+    <t>全颈椎(C1-C7)平扫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全腰椎(L1-S1)平扫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泌尿系平扫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平扫+三维</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全腹部平扫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强+三维重建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头颅CTA血管成像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头颅CTA血管成象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠脉CTA血管成像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头颅CTA/颈部CTA</t>
+  </si>
+  <si>
+    <t>颈部CTA血管成像</t>
+  </si>
+  <si>
+    <t>上腔静脉CTV血管成像</t>
+  </si>
+  <si>
+    <t>头颅CTA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张口位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左、右侧屈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰椎过伸位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRA</t>
+  </si>
+  <si>
+    <t>DWI</t>
+  </si>
+  <si>
+    <t>MRM</t>
+  </si>
+  <si>
+    <t>MRV</t>
+  </si>
+  <si>
+    <t>MRCP</t>
+  </si>
+  <si>
+    <t>平扫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头+颈部CTA血管成象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下颌骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠脉CTA血管成象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈部CTA血管成象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺动脉CTA血管成象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻咽部增强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈椎过伸位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>颈椎左右斜位片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>右下颌张口闭口位片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧斜位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双侧跟骨侧位片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>左斜</t>
-  </si>
-  <si>
-    <t>右斜</t>
-  </si>
-  <si>
-    <t>造影</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正、侧、斜位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全腹部平扫＋增强</t>
-  </si>
-  <si>
-    <t>平扫</t>
-  </si>
-  <si>
-    <t>泌尿系直接增强</t>
-  </si>
-  <si>
-    <t>直接增强</t>
-  </si>
-  <si>
-    <t>头+颈部CTA血管成像</t>
-  </si>
-  <si>
-    <t>腹主动脉CTA血管成像</t>
-  </si>
-  <si>
-    <t>肺动脉CTA血管成像</t>
-  </si>
-  <si>
-    <t>尿路成象（CTU）</t>
-  </si>
-  <si>
-    <t>下肢CTA血管成像</t>
-  </si>
-  <si>
-    <t>骨三维成象</t>
-  </si>
-  <si>
-    <t>全颈椎(C1-C7)平扫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全腰椎(L1-S1)平扫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泌尿系平扫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>平扫+三维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全腹部平扫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增强+三维重建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头颅CTA血管成像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头颅CTA血管成象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠脉CTA血管成像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头颅CTA/颈部CTA</t>
-  </si>
-  <si>
-    <t>颈部CTA血管成像</t>
-  </si>
-  <si>
-    <t>上腔静脉CTV血管成像</t>
-  </si>
-  <si>
-    <t>头颅CTA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张口位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>左、右侧屈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰椎过伸位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRA</t>
-  </si>
-  <si>
-    <t>DWI</t>
-  </si>
-  <si>
-    <t>MRM</t>
-  </si>
-  <si>
-    <t>MRV</t>
-  </si>
-  <si>
-    <t>MRCP</t>
-  </si>
-  <si>
-    <t>平扫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头+颈部CTA血管成象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下颌骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠脉CTA血管成象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>颈部CTA血管成象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肺动脉CTA血管成象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻咽部增强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>颈椎过伸位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
+    <t>蛙式位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰椎过屈位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下颌骨斜位</t>
+  </si>
+  <si>
+    <t>胸骨斜位</t>
+  </si>
+  <si>
+    <t>颈部CTA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全主动脉CTA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸主动脉CTA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -475,6 +501,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -810,8 +839,8 @@
       <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
+      <c r="C2" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -824,7 +853,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -848,7 +877,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -856,7 +885,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -864,7 +893,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -872,7 +901,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -888,7 +917,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -896,7 +925,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -904,7 +933,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -920,18 +949,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -968,7 +997,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -984,7 +1013,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -1019,23 +1048,55 @@
         <v>19</v>
       </c>
       <c r="B28" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1</v>
+      <c r="B34" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1133,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1083,7 +1144,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1091,7 +1152,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1099,7 +1160,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1107,7 +1168,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1115,7 +1176,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1123,7 +1184,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1137,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:C32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1163,13 +1224,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1182,7 +1243,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1190,7 +1251,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -1198,7 +1259,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -1206,7 +1267,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1214,7 +1275,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -1222,7 +1283,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1230,7 +1291,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1238,7 +1299,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1246,7 +1307,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -1254,7 +1315,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1262,7 +1323,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4">
         <v>4</v>
@@ -1270,7 +1331,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -1278,7 +1339,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -1286,7 +1347,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -1294,7 +1355,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1302,127 +1363,139 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="B25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="13"/>
@@ -1501,15 +1574,15 @@
       <c r="B54" s="13"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="15"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="13"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="15"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="13"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="15"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="13"/>
     </row>
     <row r="58" spans="1:2">
@@ -1549,7 +1622,7 @@
       <c r="B66" s="13"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2">
@@ -1557,8 +1630,20 @@
       <c r="B68" s="13"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1592,7 +1677,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
@@ -1611,7 +1696,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1619,7 +1704,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -1627,7 +1712,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -1635,7 +1720,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1643,7 +1728,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -1651,7 +1736,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1659,7 +1744,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1667,7 +1752,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1675,7 +1760,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -1683,7 +1768,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1691,7 +1776,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1699,7 +1784,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1707,7 +1792,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1715,7 +1800,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1723,7 +1808,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1731,7 +1816,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1739,7 +1824,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1747,7 +1832,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1755,7 +1840,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1763,7 +1848,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1771,7 +1856,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="17">
         <v>1</v>
@@ -1932,5 +2017,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/关键词字典.xlsx
+++ b/关键词字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\Statistic_for_mom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B4307-CAFD-4B70-9B62-FE7405B67911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE8E56-3EBD-4A4C-9C36-6B3F5B4E48B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>要统计的关键词</t>
   </si>
@@ -311,10 +311,6 @@
   </si>
   <si>
     <t>胸主动脉CTA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +806,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -840,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
